--- a/bin/Debug/Measument.xlsx
+++ b/bin/Debug/Measument.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="9390"/>
   </bookViews>
   <sheets>
-    <sheet name="Measument" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,6 +21,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Образец</t>
+  </si>
+  <si>
+    <t>uu</t>
+  </si>
+  <si>
+    <t>Ср.</t>
+  </si>
+  <si>
+    <t>ОСКО</t>
+  </si>
+  <si>
+    <t>200 / 200</t>
+  </si>
+  <si>
+    <t>Возбуждение / Эмиссия</t>
+  </si>
+  <si>
+    <t>0 - %</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57,7 +83,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -338,43 +364,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0.70171296296296293</v>
-      </c>
-      <c r="B1">
-        <v>1480594</v>
-      </c>
-      <c r="C1">
-        <v>4410755</v>
-      </c>
-      <c r="D1">
-        <v>3557858</v>
-      </c>
-      <c r="BM1">
-        <v>12</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0.70178240740740738</v>
-      </c>
-      <c r="B2">
-        <v>1480873</v>
-      </c>
-      <c r="C2">
-        <v>4411497</v>
-      </c>
-      <c r="D2">
-        <v>3555678</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>304008049129091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>304008049129091</v>
       </c>
     </row>
   </sheetData>
